--- a/public/templates/template_pembelian.xlsx
+++ b/public/templates/template_pembelian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEMESTER 5\Praktek\Big Data\Minggu2\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7A5CCE-5D5D-40E7-9FB2-E8682D362E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6C9C17-37D9-4A78-A7EF-2849EEFB7E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,41 +31,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>kode_item</t>
-  </si>
-  <si>
-    <t>nama_item</t>
-  </si>
-  <si>
-    <t>jenis</t>
-  </si>
-  <si>
-    <t>jumlah</t>
-  </si>
-  <si>
-    <t>satuan</t>
-  </si>
-  <si>
-    <t>total_harga</t>
-  </si>
-  <si>
-    <t>bulan</t>
-  </si>
-  <si>
-    <t>tahun</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Total Harga</t>
+  </si>
+  <si>
+    <t>Satuan</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Jenis</t>
+  </si>
+  <si>
+    <t>Nama Item</t>
+  </si>
+  <si>
+    <t>Kode Item</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,9 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,36 +413,30 @@
     <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
